--- a/데이터/중도탈락 학생 현황_학교별평균값/전처리 후/2022_전문대_학교별.xlsx
+++ b/데이터/중도탈락 학생 현황_학교별평균값/전처리 후/2022_전문대_학교별.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>신입생</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>신입생_자퇴학생</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>신입생_자퇴학생비율</t>
         </is>
@@ -516,13 +521,16 @@
         <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>9.300000000000001</v>
+        <v>6.21</v>
       </c>
       <c r="I2" t="n">
+        <v>134</v>
+      </c>
+      <c r="J2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.699999999999999</v>
+      <c r="K2" t="n">
+        <v>6.72</v>
       </c>
     </row>
     <row r="3">
@@ -556,13 +564,16 @@
         <v>101</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="I3" t="n">
+        <v>793</v>
+      </c>
+      <c r="J3" t="n">
         <v>62</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.1</v>
+      <c r="K3" t="n">
+        <v>7.82</v>
       </c>
     </row>
     <row r="4">
@@ -596,13 +607,16 @@
         <v>157</v>
       </c>
       <c r="H4" t="n">
-        <v>11.8</v>
+        <v>3.47</v>
       </c>
       <c r="I4" t="n">
+        <v>1207</v>
+      </c>
+      <c r="J4" t="n">
         <v>58</v>
       </c>
-      <c r="J4" t="n">
-        <v>10.9</v>
+      <c r="K4" t="n">
+        <v>4.81</v>
       </c>
     </row>
     <row r="5">
@@ -636,13 +650,16 @@
         <v>110</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
+        <v>831</v>
+      </c>
+      <c r="J5" t="n">
         <v>33</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.7</v>
+      <c r="K5" t="n">
+        <v>3.97</v>
       </c>
     </row>
     <row r="6">
@@ -676,13 +693,16 @@
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>74.40000000000001</v>
+        <v>3.62</v>
       </c>
       <c r="I6" t="n">
+        <v>124</v>
+      </c>
+      <c r="J6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.5</v>
+      <c r="K6" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="7">
@@ -716,13 +736,16 @@
         <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>11.6</v>
+        <v>4.84</v>
       </c>
       <c r="I7" t="n">
+        <v>314</v>
+      </c>
+      <c r="J7" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="n">
-        <v>8</v>
+      <c r="K7" t="n">
+        <v>5.41</v>
       </c>
     </row>
     <row r="8">
@@ -756,13 +779,16 @@
         <v>48</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>3.44</v>
       </c>
       <c r="I8" t="n">
+        <v>326</v>
+      </c>
+      <c r="J8" t="n">
         <v>10</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
+      <c r="K8" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="9">
@@ -796,13 +822,16 @@
         <v>355</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>4.69</v>
       </c>
       <c r="I9" t="n">
+        <v>1863</v>
+      </c>
+      <c r="J9" t="n">
         <v>139</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.8</v>
+      <c r="K9" t="n">
+        <v>7.46</v>
       </c>
     </row>
     <row r="10">
@@ -836,13 +865,16 @@
         <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>6.7</v>
+        <v>2.25</v>
       </c>
       <c r="I10" t="n">
+        <v>390</v>
+      </c>
+      <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.2</v>
+      <c r="K10" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="11">
@@ -876,13 +908,16 @@
         <v>88</v>
       </c>
       <c r="H11" t="n">
-        <v>12.7</v>
+        <v>6.82</v>
       </c>
       <c r="I11" t="n">
+        <v>380</v>
+      </c>
+      <c r="J11" t="n">
         <v>26</v>
       </c>
-      <c r="J11" t="n">
-        <v>10</v>
+      <c r="K11" t="n">
+        <v>6.84</v>
       </c>
     </row>
     <row r="12">
@@ -916,13 +951,16 @@
         <v>484</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
+        <v>2654</v>
+      </c>
+      <c r="J12" t="n">
         <v>100</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.4</v>
+      <c r="K12" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="13">
@@ -956,13 +994,16 @@
         <v>263</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>4.06</v>
       </c>
       <c r="I13" t="n">
+        <v>1722</v>
+      </c>
+      <c r="J13" t="n">
         <v>121</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.3</v>
+      <c r="K13" t="n">
+        <v>7.03</v>
       </c>
     </row>
     <row r="14">
@@ -996,13 +1037,16 @@
         <v>244</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>3.07</v>
       </c>
       <c r="I14" t="n">
+        <v>2332</v>
+      </c>
+      <c r="J14" t="n">
         <v>134</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.3</v>
+      <c r="K14" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="15">
@@ -1036,13 +1080,16 @@
         <v>39</v>
       </c>
       <c r="H15" t="n">
-        <v>10.7</v>
+        <v>1.95</v>
       </c>
       <c r="I15" t="n">
+        <v>811</v>
+      </c>
+      <c r="J15" t="n">
         <v>26</v>
       </c>
-      <c r="J15" t="n">
-        <v>15.9</v>
+      <c r="K15" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="16">
@@ -1076,13 +1123,16 @@
         <v>58</v>
       </c>
       <c r="H16" t="n">
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
+        <v>365</v>
+      </c>
+      <c r="J16" t="n">
         <v>30</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.3</v>
+      <c r="K16" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1116,13 +1166,16 @@
         <v>58</v>
       </c>
       <c r="H17" t="n">
-        <v>4.9</v>
+        <v>3.97</v>
       </c>
       <c r="I17" t="n">
+        <v>381</v>
+      </c>
+      <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.2</v>
+      <c r="K17" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="18">
@@ -1156,13 +1209,16 @@
         <v>89</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="I18" t="n">
+        <v>1098</v>
+      </c>
+      <c r="J18" t="n">
         <v>36</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.4</v>
+      <c r="K18" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="19">
@@ -1196,13 +1252,16 @@
         <v>181</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3.66</v>
       </c>
       <c r="I19" t="n">
+        <v>1888</v>
+      </c>
+      <c r="J19" t="n">
         <v>95</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.6</v>
+      <c r="K19" t="n">
+        <v>5.03</v>
       </c>
     </row>
     <row r="20">
@@ -1236,13 +1295,16 @@
         <v>311</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>4.56</v>
       </c>
       <c r="I20" t="n">
+        <v>2176</v>
+      </c>
+      <c r="J20" t="n">
         <v>105</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.8</v>
+      <c r="K20" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row r="21">
@@ -1276,13 +1338,16 @@
         <v>156</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>3.86</v>
       </c>
       <c r="I21" t="n">
+        <v>1250</v>
+      </c>
+      <c r="J21" t="n">
         <v>88</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.1</v>
+      <c r="K21" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="22">
@@ -1316,13 +1381,16 @@
         <v>80</v>
       </c>
       <c r="H22" t="n">
-        <v>14.1</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
+        <v>776</v>
+      </c>
+      <c r="J22" t="n">
         <v>40</v>
       </c>
-      <c r="J22" t="n">
-        <v>18.9</v>
+      <c r="K22" t="n">
+        <v>5.15</v>
       </c>
     </row>
     <row r="23">
@@ -1356,13 +1424,16 @@
         <v>45</v>
       </c>
       <c r="H23" t="n">
-        <v>15.6</v>
+        <v>9.91</v>
       </c>
       <c r="I23" t="n">
+        <v>60</v>
+      </c>
+      <c r="J23" t="n">
         <v>4</v>
       </c>
-      <c r="J23" t="n">
-        <v>10</v>
+      <c r="K23" t="n">
+        <v>6.67</v>
       </c>
     </row>
     <row r="24">
@@ -1396,13 +1467,16 @@
         <v>179</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>3.77</v>
       </c>
       <c r="I24" t="n">
+        <v>1435</v>
+      </c>
+      <c r="J24" t="n">
         <v>73</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.3</v>
+      <c r="K24" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="25">
@@ -1436,13 +1510,16 @@
         <v>318</v>
       </c>
       <c r="H25" t="n">
-        <v>8.4</v>
+        <v>4.62</v>
       </c>
       <c r="I25" t="n">
+        <v>2488</v>
+      </c>
+      <c r="J25" t="n">
         <v>157</v>
       </c>
-      <c r="J25" t="n">
-        <v>9</v>
+      <c r="K25" t="n">
+        <v>6.31</v>
       </c>
     </row>
     <row r="26">
@@ -1476,13 +1553,16 @@
         <v>307</v>
       </c>
       <c r="H26" t="n">
-        <v>13.9</v>
+        <v>5.86</v>
       </c>
       <c r="I26" t="n">
+        <v>1313</v>
+      </c>
+      <c r="J26" t="n">
         <v>125</v>
       </c>
-      <c r="J26" t="n">
-        <v>22.9</v>
+      <c r="K26" t="n">
+        <v>9.52</v>
       </c>
     </row>
     <row r="27">
@@ -1516,13 +1596,16 @@
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="I27" t="n">
+        <v>310</v>
+      </c>
+      <c r="J27" t="n">
         <v>13</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.2</v>
+      <c r="K27" t="n">
+        <v>4.19</v>
       </c>
     </row>
     <row r="28">
@@ -1556,13 +1639,16 @@
         <v>69</v>
       </c>
       <c r="H28" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
+        <v>822</v>
+      </c>
+      <c r="J28" t="n">
         <v>30</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.3</v>
+      <c r="K28" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="29">
@@ -1599,9 +1685,12 @@
         <v>1.7</v>
       </c>
       <c r="I29" t="n">
+        <v>162</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1636,13 +1725,16 @@
         <v>147</v>
       </c>
       <c r="H30" t="n">
-        <v>10.6</v>
+        <v>3.58</v>
       </c>
       <c r="I30" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J30" t="n">
         <v>63</v>
       </c>
-      <c r="J30" t="n">
-        <v>9.800000000000001</v>
+      <c r="K30" t="n">
+        <v>6.27</v>
       </c>
     </row>
     <row r="31">
@@ -1676,13 +1768,16 @@
         <v>61</v>
       </c>
       <c r="H31" t="n">
-        <v>6.6</v>
+        <v>3.58</v>
       </c>
       <c r="I31" t="n">
+        <v>495</v>
+      </c>
+      <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="J31" t="n">
-        <v>7.5</v>
+      <c r="K31" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row r="32">
@@ -1716,13 +1811,16 @@
         <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="I32" t="n">
+        <v>157</v>
+      </c>
+      <c r="J32" t="n">
         <v>7</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.5</v>
+      <c r="K32" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="33">
@@ -1756,13 +1854,16 @@
         <v>276</v>
       </c>
       <c r="H33" t="n">
-        <v>11.1</v>
+        <v>5.37</v>
       </c>
       <c r="I33" t="n">
+        <v>1917</v>
+      </c>
+      <c r="J33" t="n">
         <v>136</v>
       </c>
-      <c r="J33" t="n">
-        <v>11.9</v>
+      <c r="K33" t="n">
+        <v>7.09</v>
       </c>
     </row>
     <row r="34">
@@ -1796,13 +1897,16 @@
         <v>118</v>
       </c>
       <c r="H34" t="n">
-        <v>23</v>
+        <v>4.62</v>
       </c>
       <c r="I34" t="n">
+        <v>815</v>
+      </c>
+      <c r="J34" t="n">
         <v>22</v>
       </c>
-      <c r="J34" t="n">
-        <v>13.5</v>
+      <c r="K34" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="35">
@@ -1836,13 +1940,16 @@
         <v>90</v>
       </c>
       <c r="H35" t="n">
-        <v>6.3</v>
+        <v>1.84</v>
       </c>
       <c r="I35" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J35" t="n">
         <v>37</v>
       </c>
-      <c r="J35" t="n">
-        <v>6.1</v>
+      <c r="K35" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="36">
@@ -1876,13 +1983,16 @@
         <v>298</v>
       </c>
       <c r="H36" t="n">
-        <v>5.7</v>
+        <v>3.47</v>
       </c>
       <c r="I36" t="n">
+        <v>2596</v>
+      </c>
+      <c r="J36" t="n">
         <v>124</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.7</v>
+      <c r="K36" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="37">
@@ -1916,13 +2026,16 @@
         <v>238</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6</v>
+        <v>5.32</v>
       </c>
       <c r="I37" t="n">
+        <v>1217</v>
+      </c>
+      <c r="J37" t="n">
         <v>80</v>
       </c>
-      <c r="J37" t="n">
-        <v>9.9</v>
+      <c r="K37" t="n">
+        <v>6.57</v>
       </c>
     </row>
     <row r="38">
@@ -1956,13 +2069,16 @@
         <v>56</v>
       </c>
       <c r="H38" t="n">
-        <v>5.2</v>
+        <v>3.13</v>
       </c>
       <c r="I38" t="n">
+        <v>479</v>
+      </c>
+      <c r="J38" t="n">
         <v>21</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.2</v>
+      <c r="K38" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row r="39">
@@ -1996,13 +2112,16 @@
         <v>299</v>
       </c>
       <c r="H39" t="n">
-        <v>5.2</v>
+        <v>2.83</v>
       </c>
       <c r="I39" t="n">
+        <v>3173</v>
+      </c>
+      <c r="J39" t="n">
         <v>118</v>
       </c>
-      <c r="J39" t="n">
-        <v>4.7</v>
+      <c r="K39" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="40">
@@ -2036,13 +2155,16 @@
         <v>96</v>
       </c>
       <c r="H40" t="n">
-        <v>7.3</v>
+        <v>3.36</v>
       </c>
       <c r="I40" t="n">
+        <v>861</v>
+      </c>
+      <c r="J40" t="n">
         <v>43</v>
       </c>
-      <c r="J40" t="n">
-        <v>7</v>
+      <c r="K40" t="n">
+        <v>4.99</v>
       </c>
     </row>
     <row r="41">
@@ -2076,13 +2198,16 @@
         <v>161</v>
       </c>
       <c r="H41" t="n">
-        <v>9.5</v>
+        <v>3.11</v>
       </c>
       <c r="I41" t="n">
+        <v>1573</v>
+      </c>
+      <c r="J41" t="n">
         <v>83</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.7</v>
+      <c r="K41" t="n">
+        <v>5.28</v>
       </c>
     </row>
     <row r="42">
@@ -2116,13 +2241,16 @@
         <v>224</v>
       </c>
       <c r="H42" t="n">
-        <v>5.8</v>
+        <v>3.23</v>
       </c>
       <c r="I42" t="n">
+        <v>1925</v>
+      </c>
+      <c r="J42" t="n">
         <v>70</v>
       </c>
-      <c r="J42" t="n">
-        <v>4.1</v>
+      <c r="K42" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="43">
@@ -2156,13 +2284,16 @@
         <v>133</v>
       </c>
       <c r="H43" t="n">
-        <v>12.4</v>
+        <v>3.94</v>
       </c>
       <c r="I43" t="n">
+        <v>1090</v>
+      </c>
+      <c r="J43" t="n">
         <v>70</v>
       </c>
-      <c r="J43" t="n">
-        <v>19.8</v>
+      <c r="K43" t="n">
+        <v>6.42</v>
       </c>
     </row>
     <row r="44">
@@ -2196,13 +2327,16 @@
         <v>182</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>3.24</v>
       </c>
       <c r="I44" t="n">
+        <v>1726</v>
+      </c>
+      <c r="J44" t="n">
         <v>85</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.6</v>
+      <c r="K44" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="45">
@@ -2236,13 +2370,16 @@
         <v>290</v>
       </c>
       <c r="H45" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
+        <v>2616</v>
+      </c>
+      <c r="J45" t="n">
         <v>132</v>
       </c>
-      <c r="J45" t="n">
-        <v>6.4</v>
+      <c r="K45" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="46">
@@ -2276,13 +2413,16 @@
         <v>153</v>
       </c>
       <c r="H46" t="n">
-        <v>5.3</v>
+        <v>3.64</v>
       </c>
       <c r="I46" t="n">
+        <v>1201</v>
+      </c>
+      <c r="J46" t="n">
         <v>72</v>
       </c>
-      <c r="J46" t="n">
-        <v>6.3</v>
+      <c r="K46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2316,13 +2456,16 @@
         <v>84</v>
       </c>
       <c r="H47" t="n">
-        <v>12.4</v>
+        <v>5.06</v>
       </c>
       <c r="I47" t="n">
+        <v>552</v>
+      </c>
+      <c r="J47" t="n">
         <v>53</v>
       </c>
-      <c r="J47" t="n">
-        <v>16.7</v>
+      <c r="K47" t="n">
+        <v>9.6</v>
       </c>
     </row>
     <row r="48">
@@ -2356,13 +2499,16 @@
         <v>418</v>
       </c>
       <c r="H48" t="n">
-        <v>6.4</v>
+        <v>4.12</v>
       </c>
       <c r="I48" t="n">
+        <v>2837</v>
+      </c>
+      <c r="J48" t="n">
         <v>183</v>
       </c>
-      <c r="J48" t="n">
-        <v>7.5</v>
+      <c r="K48" t="n">
+        <v>6.45</v>
       </c>
     </row>
     <row r="49">
@@ -2396,13 +2542,16 @@
         <v>73</v>
       </c>
       <c r="H49" t="n">
-        <v>7.4</v>
+        <v>2.29</v>
       </c>
       <c r="I49" t="n">
+        <v>996</v>
+      </c>
+      <c r="J49" t="n">
         <v>22</v>
       </c>
-      <c r="J49" t="n">
-        <v>8.4</v>
+      <c r="K49" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="50">
@@ -2436,13 +2585,16 @@
         <v>219</v>
       </c>
       <c r="H50" t="n">
-        <v>10.3</v>
+        <v>4.6</v>
       </c>
       <c r="I50" t="n">
+        <v>1370</v>
+      </c>
+      <c r="J50" t="n">
         <v>88</v>
       </c>
-      <c r="J50" t="n">
-        <v>9.699999999999999</v>
+      <c r="K50" t="n">
+        <v>6.42</v>
       </c>
     </row>
     <row r="51">
@@ -2476,13 +2628,16 @@
         <v>428</v>
       </c>
       <c r="H51" t="n">
-        <v>9.9</v>
+        <v>5.69</v>
       </c>
       <c r="I51" t="n">
+        <v>1756</v>
+      </c>
+      <c r="J51" t="n">
         <v>108</v>
       </c>
-      <c r="J51" t="n">
-        <v>8.9</v>
+      <c r="K51" t="n">
+        <v>6.15</v>
       </c>
     </row>
     <row r="52">
@@ -2516,13 +2671,16 @@
         <v>133</v>
       </c>
       <c r="H52" t="n">
-        <v>9.199999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="I52" t="n">
+        <v>965</v>
+      </c>
+      <c r="J52" t="n">
         <v>42</v>
       </c>
-      <c r="J52" t="n">
-        <v>8.300000000000001</v>
+      <c r="K52" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="53">
@@ -2556,13 +2714,16 @@
         <v>295</v>
       </c>
       <c r="H53" t="n">
-        <v>9.300000000000001</v>
+        <v>4.98</v>
       </c>
       <c r="I53" t="n">
+        <v>955</v>
+      </c>
+      <c r="J53" t="n">
         <v>73</v>
       </c>
-      <c r="J53" t="n">
-        <v>8.699999999999999</v>
+      <c r="K53" t="n">
+        <v>7.64</v>
       </c>
     </row>
     <row r="54">
@@ -2596,13 +2757,16 @@
         <v>275</v>
       </c>
       <c r="H54" t="n">
-        <v>6.8</v>
+        <v>3.94</v>
       </c>
       <c r="I54" t="n">
+        <v>2061</v>
+      </c>
+      <c r="J54" t="n">
         <v>87</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.7</v>
+      <c r="K54" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="55">
@@ -2636,13 +2800,16 @@
         <v>538</v>
       </c>
       <c r="H55" t="n">
-        <v>7.2</v>
+        <v>5.65</v>
       </c>
       <c r="I55" t="n">
+        <v>3280</v>
+      </c>
+      <c r="J55" t="n">
         <v>279</v>
       </c>
-      <c r="J55" t="n">
-        <v>8.800000000000001</v>
+      <c r="K55" t="n">
+        <v>8.51</v>
       </c>
     </row>
     <row r="56">
@@ -2676,13 +2843,16 @@
         <v>95</v>
       </c>
       <c r="H56" t="n">
-        <v>13.8</v>
+        <v>2.95</v>
       </c>
       <c r="I56" t="n">
+        <v>966</v>
+      </c>
+      <c r="J56" t="n">
         <v>36</v>
       </c>
-      <c r="J56" t="n">
-        <v>11.1</v>
+      <c r="K56" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="57">
@@ -2716,13 +2886,16 @@
         <v>44</v>
       </c>
       <c r="H57" t="n">
-        <v>5.7</v>
+        <v>4.12</v>
       </c>
       <c r="I57" t="n">
+        <v>294</v>
+      </c>
+      <c r="J57" t="n">
         <v>14</v>
       </c>
-      <c r="J57" t="n">
-        <v>4.8</v>
+      <c r="K57" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="58">
@@ -2756,13 +2929,16 @@
         <v>135</v>
       </c>
       <c r="H58" t="n">
-        <v>5.9</v>
+        <v>4.18</v>
       </c>
       <c r="I58" t="n">
+        <v>1364</v>
+      </c>
+      <c r="J58" t="n">
         <v>82</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.7</v>
+      <c r="K58" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="59">
@@ -2796,13 +2972,16 @@
         <v>274</v>
       </c>
       <c r="H59" t="n">
-        <v>8.800000000000001</v>
+        <v>3.92</v>
       </c>
       <c r="I59" t="n">
+        <v>1738</v>
+      </c>
+      <c r="J59" t="n">
         <v>127</v>
       </c>
-      <c r="J59" t="n">
-        <v>9.199999999999999</v>
+      <c r="K59" t="n">
+        <v>7.31</v>
       </c>
     </row>
     <row r="60">
@@ -2836,13 +3015,16 @@
         <v>91</v>
       </c>
       <c r="H60" t="n">
-        <v>10.8</v>
+        <v>5.78</v>
       </c>
       <c r="I60" t="n">
+        <v>565</v>
+      </c>
+      <c r="J60" t="n">
         <v>43</v>
       </c>
-      <c r="J60" t="n">
-        <v>8.300000000000001</v>
+      <c r="K60" t="n">
+        <v>7.61</v>
       </c>
     </row>
     <row r="61">
@@ -2876,13 +3058,16 @@
         <v>289</v>
       </c>
       <c r="H61" t="n">
-        <v>24.9</v>
+        <v>7.68</v>
       </c>
       <c r="I61" t="n">
+        <v>1292</v>
+      </c>
+      <c r="J61" t="n">
         <v>141</v>
       </c>
-      <c r="J61" t="n">
-        <v>21.5</v>
+      <c r="K61" t="n">
+        <v>10.91</v>
       </c>
     </row>
     <row r="62">
@@ -2916,13 +3101,16 @@
         <v>286</v>
       </c>
       <c r="H62" t="n">
-        <v>12.1</v>
+        <v>4.95</v>
       </c>
       <c r="I62" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J62" t="n">
         <v>87</v>
       </c>
-      <c r="J62" t="n">
-        <v>9.5</v>
+      <c r="K62" t="n">
+        <v>6.69</v>
       </c>
     </row>
     <row r="63">
@@ -2956,13 +3144,16 @@
         <v>82</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>3.18</v>
       </c>
       <c r="I63" t="n">
+        <v>836</v>
+      </c>
+      <c r="J63" t="n">
         <v>37</v>
       </c>
-      <c r="J63" t="n">
-        <v>6.7</v>
+      <c r="K63" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="64">
@@ -2996,13 +3187,16 @@
         <v>64</v>
       </c>
       <c r="H64" t="n">
-        <v>16.6</v>
+        <v>7.31</v>
       </c>
       <c r="I64" t="n">
+        <v>389</v>
+      </c>
+      <c r="J64" t="n">
         <v>35</v>
       </c>
-      <c r="J64" t="n">
-        <v>15.7</v>
+      <c r="K64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3036,13 +3230,16 @@
         <v>312</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>3.03</v>
       </c>
       <c r="I65" t="n">
+        <v>3529</v>
+      </c>
+      <c r="J65" t="n">
         <v>130</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.5</v>
+      <c r="K65" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="66">
@@ -3076,13 +3273,16 @@
         <v>42</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>2.69</v>
       </c>
       <c r="I66" t="n">
+        <v>553</v>
+      </c>
+      <c r="J66" t="n">
         <v>27</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.2</v>
+      <c r="K66" t="n">
+        <v>4.88</v>
       </c>
     </row>
     <row r="67">
@@ -3116,7 +3316,7 @@
         <v>127</v>
       </c>
       <c r="H67" t="n">
-        <v>25.9</v>
+        <v>17.23</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3124,6 +3324,7 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3156,13 +3357,16 @@
         <v>14</v>
       </c>
       <c r="H68" t="n">
-        <v>5.2</v>
+        <v>1.97</v>
       </c>
       <c r="I68" t="n">
+        <v>208</v>
+      </c>
+      <c r="J68" t="n">
         <v>10</v>
       </c>
-      <c r="J68" t="n">
-        <v>7.7</v>
+      <c r="K68" t="n">
+        <v>4.81</v>
       </c>
     </row>
     <row r="69">
@@ -3196,13 +3400,16 @@
         <v>265</v>
       </c>
       <c r="H69" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
+        <v>2231</v>
+      </c>
+      <c r="J69" t="n">
         <v>111</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.8</v>
+      <c r="K69" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row r="70">
@@ -3236,13 +3443,16 @@
         <v>23</v>
       </c>
       <c r="H70" t="n">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="I70" t="n">
+        <v>261</v>
+      </c>
+      <c r="J70" t="n">
         <v>16</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.9</v>
+      <c r="K70" t="n">
+        <v>6.13</v>
       </c>
     </row>
     <row r="71">
@@ -3276,13 +3486,16 @@
         <v>46</v>
       </c>
       <c r="H71" t="n">
-        <v>3.2</v>
+        <v>1.08</v>
       </c>
       <c r="I71" t="n">
+        <v>1137</v>
+      </c>
+      <c r="J71" t="n">
         <v>21</v>
       </c>
-      <c r="J71" t="n">
-        <v>2</v>
+      <c r="K71" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="72">
@@ -3316,13 +3529,16 @@
         <v>340</v>
       </c>
       <c r="H72" t="n">
-        <v>7.8</v>
+        <v>4.01</v>
       </c>
       <c r="I72" t="n">
+        <v>2506</v>
+      </c>
+      <c r="J72" t="n">
         <v>156</v>
       </c>
-      <c r="J72" t="n">
-        <v>7.7</v>
+      <c r="K72" t="n">
+        <v>6.23</v>
       </c>
     </row>
     <row r="73">
@@ -3356,13 +3572,16 @@
         <v>223</v>
       </c>
       <c r="H73" t="n">
-        <v>27.7</v>
+        <v>2.47</v>
       </c>
       <c r="I73" t="n">
+        <v>2725</v>
+      </c>
+      <c r="J73" t="n">
         <v>90</v>
       </c>
-      <c r="J73" t="n">
-        <v>10.2</v>
+      <c r="K73" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="74">
@@ -3396,13 +3615,16 @@
         <v>113</v>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>3.98</v>
       </c>
       <c r="I74" t="n">
+        <v>779</v>
+      </c>
+      <c r="J74" t="n">
         <v>44</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.5</v>
+      <c r="K74" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="75">
@@ -3444,6 +3666,7 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3476,13 +3699,16 @@
         <v>76</v>
       </c>
       <c r="H76" t="n">
-        <v>9.4</v>
+        <v>4.99</v>
       </c>
       <c r="I76" t="n">
+        <v>712</v>
+      </c>
+      <c r="J76" t="n">
         <v>57</v>
       </c>
-      <c r="J76" t="n">
-        <v>11.5</v>
+      <c r="K76" t="n">
+        <v>8.01</v>
       </c>
     </row>
     <row r="77">
@@ -3516,13 +3742,16 @@
         <v>40</v>
       </c>
       <c r="H77" t="n">
-        <v>10.9</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
+        <v>470</v>
+      </c>
+      <c r="J77" t="n">
         <v>16</v>
       </c>
-      <c r="J77" t="n">
-        <v>9.800000000000001</v>
+      <c r="K77" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="78">
@@ -3556,13 +3785,16 @@
         <v>19</v>
       </c>
       <c r="H78" t="n">
-        <v>8.9</v>
+        <v>2.47</v>
       </c>
       <c r="I78" t="n">
+        <v>233</v>
+      </c>
+      <c r="J78" t="n">
         <v>13</v>
       </c>
-      <c r="J78" t="n">
-        <v>12</v>
+      <c r="K78" t="n">
+        <v>5.58</v>
       </c>
     </row>
     <row r="79">
@@ -3596,13 +3828,16 @@
         <v>89</v>
       </c>
       <c r="H79" t="n">
-        <v>16.2</v>
+        <v>6.72</v>
       </c>
       <c r="I79" t="n">
+        <v>360</v>
+      </c>
+      <c r="J79" t="n">
         <v>58</v>
       </c>
-      <c r="J79" t="n">
-        <v>20</v>
+      <c r="K79" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="80">
@@ -3636,13 +3871,16 @@
         <v>149</v>
       </c>
       <c r="H80" t="n">
-        <v>11.1</v>
+        <v>3.24</v>
       </c>
       <c r="I80" t="n">
+        <v>1386</v>
+      </c>
+      <c r="J80" t="n">
         <v>56</v>
       </c>
-      <c r="J80" t="n">
-        <v>9.5</v>
+      <c r="K80" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="81">
@@ -3676,13 +3914,16 @@
         <v>265</v>
       </c>
       <c r="H81" t="n">
-        <v>7.9</v>
+        <v>3.61</v>
       </c>
       <c r="I81" t="n">
+        <v>1686</v>
+      </c>
+      <c r="J81" t="n">
         <v>104</v>
       </c>
-      <c r="J81" t="n">
-        <v>8</v>
+      <c r="K81" t="n">
+        <v>6.17</v>
       </c>
     </row>
     <row r="82">
@@ -3716,13 +3957,16 @@
         <v>208</v>
       </c>
       <c r="H82" t="n">
-        <v>5.8</v>
+        <v>4.73</v>
       </c>
       <c r="I82" t="n">
+        <v>1513</v>
+      </c>
+      <c r="J82" t="n">
         <v>106</v>
       </c>
-      <c r="J82" t="n">
-        <v>7.1</v>
+      <c r="K82" t="n">
+        <v>7.01</v>
       </c>
     </row>
     <row r="83">
@@ -3756,13 +4000,16 @@
         <v>231</v>
       </c>
       <c r="H83" t="n">
-        <v>12.2</v>
+        <v>6.19</v>
       </c>
       <c r="I83" t="n">
+        <v>1212</v>
+      </c>
+      <c r="J83" t="n">
         <v>75</v>
       </c>
-      <c r="J83" t="n">
-        <v>8.6</v>
+      <c r="K83" t="n">
+        <v>6.19</v>
       </c>
     </row>
     <row r="84">
@@ -3796,13 +4043,16 @@
         <v>161</v>
       </c>
       <c r="H84" t="n">
-        <v>5.7</v>
+        <v>4.49</v>
       </c>
       <c r="I84" t="n">
+        <v>1575</v>
+      </c>
+      <c r="J84" t="n">
         <v>100</v>
       </c>
-      <c r="J84" t="n">
-        <v>7.7</v>
+      <c r="K84" t="n">
+        <v>6.35</v>
       </c>
     </row>
     <row r="85">
@@ -3836,13 +4086,16 @@
         <v>348</v>
       </c>
       <c r="H85" t="n">
-        <v>5.8</v>
+        <v>4.06</v>
       </c>
       <c r="I85" t="n">
+        <v>2872</v>
+      </c>
+      <c r="J85" t="n">
         <v>160</v>
       </c>
-      <c r="J85" t="n">
-        <v>6.4</v>
+      <c r="K85" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row r="86">
@@ -3876,13 +4129,16 @@
         <v>219</v>
       </c>
       <c r="H86" t="n">
-        <v>9.1</v>
+        <v>4.53</v>
       </c>
       <c r="I86" t="n">
+        <v>1282</v>
+      </c>
+      <c r="J86" t="n">
         <v>88</v>
       </c>
-      <c r="J86" t="n">
-        <v>8.1</v>
+      <c r="K86" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="87">
@@ -3916,13 +4172,16 @@
         <v>187</v>
       </c>
       <c r="H87" t="n">
-        <v>8.300000000000001</v>
+        <v>3.58</v>
       </c>
       <c r="I87" t="n">
+        <v>1156</v>
+      </c>
+      <c r="J87" t="n">
         <v>64</v>
       </c>
-      <c r="J87" t="n">
-        <v>8.4</v>
+      <c r="K87" t="n">
+        <v>5.54</v>
       </c>
     </row>
     <row r="88">
@@ -3955,15 +4214,14 @@
       <c r="G88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3996,13 +4254,16 @@
         <v>105</v>
       </c>
       <c r="H89" t="n">
-        <v>5.1</v>
+        <v>4.96</v>
       </c>
       <c r="I89" t="n">
+        <v>371</v>
+      </c>
+      <c r="J89" t="n">
         <v>41</v>
       </c>
-      <c r="J89" t="n">
-        <v>11.9</v>
+      <c r="K89" t="n">
+        <v>11.05</v>
       </c>
     </row>
     <row r="90">
@@ -4036,13 +4297,16 @@
         <v>62</v>
       </c>
       <c r="H90" t="n">
-        <v>8</v>
+        <v>1.94</v>
       </c>
       <c r="I90" t="n">
+        <v>804</v>
+      </c>
+      <c r="J90" t="n">
         <v>27</v>
       </c>
-      <c r="J90" t="n">
-        <v>4.4</v>
+      <c r="K90" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="91">
@@ -4076,13 +4340,16 @@
         <v>168</v>
       </c>
       <c r="H91" t="n">
-        <v>5.6</v>
+        <v>3.07</v>
       </c>
       <c r="I91" t="n">
+        <v>1496</v>
+      </c>
+      <c r="J91" t="n">
         <v>64</v>
       </c>
-      <c r="J91" t="n">
-        <v>6.3</v>
+      <c r="K91" t="n">
+        <v>4.28</v>
       </c>
     </row>
     <row r="92">
@@ -4116,13 +4383,16 @@
         <v>254</v>
       </c>
       <c r="H92" t="n">
-        <v>8.199999999999999</v>
+        <v>3.78</v>
       </c>
       <c r="I92" t="n">
+        <v>1713</v>
+      </c>
+      <c r="J92" t="n">
         <v>107</v>
       </c>
-      <c r="J92" t="n">
-        <v>7.6</v>
+      <c r="K92" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="93">
@@ -4156,13 +4426,16 @@
         <v>339</v>
       </c>
       <c r="H93" t="n">
-        <v>4.4</v>
+        <v>4.14</v>
       </c>
       <c r="I93" t="n">
+        <v>2631</v>
+      </c>
+      <c r="J93" t="n">
         <v>147</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.8</v>
+      <c r="K93" t="n">
+        <v>5.59</v>
       </c>
     </row>
     <row r="94">
@@ -4196,13 +4469,16 @@
         <v>140</v>
       </c>
       <c r="H94" t="n">
-        <v>7.1</v>
+        <v>5.64</v>
       </c>
       <c r="I94" t="n">
+        <v>558</v>
+      </c>
+      <c r="J94" t="n">
         <v>26</v>
       </c>
-      <c r="J94" t="n">
-        <v>4.7</v>
+      <c r="K94" t="n">
+        <v>4.66</v>
       </c>
     </row>
     <row r="95">
@@ -4236,12 +4512,15 @@
         <v>38</v>
       </c>
       <c r="H95" t="n">
-        <v>4.5</v>
+        <v>2.51</v>
       </c>
       <c r="I95" t="n">
+        <v>575</v>
+      </c>
+      <c r="J95" t="n">
         <v>19</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -4276,13 +4555,16 @@
         <v>13</v>
       </c>
       <c r="H96" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="I96" t="n">
+        <v>167</v>
+      </c>
+      <c r="J96" t="n">
         <v>9</v>
       </c>
-      <c r="J96" t="n">
-        <v>11.4</v>
+      <c r="K96" t="n">
+        <v>5.39</v>
       </c>
     </row>
     <row r="97">
@@ -4316,13 +4598,16 @@
         <v>265</v>
       </c>
       <c r="H97" t="n">
-        <v>7.1</v>
+        <v>3.21</v>
       </c>
       <c r="I97" t="n">
+        <v>2171</v>
+      </c>
+      <c r="J97" t="n">
         <v>90</v>
       </c>
-      <c r="J97" t="n">
-        <v>6</v>
+      <c r="K97" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="98">
@@ -4356,13 +4641,16 @@
         <v>81</v>
       </c>
       <c r="H98" t="n">
-        <v>6.9</v>
+        <v>1.93</v>
       </c>
       <c r="I98" t="n">
+        <v>1726</v>
+      </c>
+      <c r="J98" t="n">
         <v>49</v>
       </c>
-      <c r="J98" t="n">
-        <v>5</v>
+      <c r="K98" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row r="99">
@@ -4396,13 +4684,16 @@
         <v>714</v>
       </c>
       <c r="H99" t="n">
-        <v>10.3</v>
+        <v>5.96</v>
       </c>
       <c r="I99" t="n">
+        <v>3148</v>
+      </c>
+      <c r="J99" t="n">
         <v>301</v>
       </c>
-      <c r="J99" t="n">
-        <v>13.5</v>
+      <c r="K99" t="n">
+        <v>9.56</v>
       </c>
     </row>
     <row r="100">
@@ -4436,13 +4727,16 @@
         <v>223</v>
       </c>
       <c r="H100" t="n">
-        <v>11</v>
+        <v>3.14</v>
       </c>
       <c r="I100" t="n">
+        <v>2099</v>
+      </c>
+      <c r="J100" t="n">
         <v>101</v>
       </c>
-      <c r="J100" t="n">
-        <v>13</v>
+      <c r="K100" t="n">
+        <v>4.81</v>
       </c>
     </row>
     <row r="101">
@@ -4476,13 +4770,16 @@
         <v>285</v>
       </c>
       <c r="H101" t="n">
-        <v>8.9</v>
+        <v>5.45</v>
       </c>
       <c r="I101" t="n">
+        <v>1261</v>
+      </c>
+      <c r="J101" t="n">
         <v>90</v>
       </c>
-      <c r="J101" t="n">
-        <v>9.300000000000001</v>
+      <c r="K101" t="n">
+        <v>7.14</v>
       </c>
     </row>
     <row r="102">
@@ -4516,13 +4813,16 @@
         <v>256</v>
       </c>
       <c r="H102" t="n">
-        <v>9.800000000000001</v>
+        <v>4.18</v>
       </c>
       <c r="I102" t="n">
+        <v>1551</v>
+      </c>
+      <c r="J102" t="n">
         <v>70</v>
       </c>
-      <c r="J102" t="n">
-        <v>7.3</v>
+      <c r="K102" t="n">
+        <v>4.51</v>
       </c>
     </row>
     <row r="103">
@@ -4556,13 +4856,16 @@
         <v>339</v>
       </c>
       <c r="H103" t="n">
-        <v>5.7</v>
+        <v>4.17</v>
       </c>
       <c r="I103" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J103" t="n">
         <v>97</v>
       </c>
-      <c r="J103" t="n">
-        <v>5.3</v>
+      <c r="K103" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row r="104">
@@ -4596,13 +4899,16 @@
         <v>71</v>
       </c>
       <c r="H104" t="n">
-        <v>10.6</v>
+        <v>4.59</v>
       </c>
       <c r="I104" t="n">
+        <v>156</v>
+      </c>
+      <c r="J104" t="n">
         <v>11</v>
       </c>
-      <c r="J104" t="n">
-        <v>10.9</v>
+      <c r="K104" t="n">
+        <v>7.05</v>
       </c>
     </row>
     <row r="105">
@@ -4636,13 +4942,16 @@
         <v>224</v>
       </c>
       <c r="H105" t="n">
-        <v>6.6</v>
+        <v>3.45</v>
       </c>
       <c r="I105" t="n">
+        <v>1795</v>
+      </c>
+      <c r="J105" t="n">
         <v>98</v>
       </c>
-      <c r="J105" t="n">
-        <v>5.6</v>
+      <c r="K105" t="n">
+        <v>5.46</v>
       </c>
     </row>
     <row r="106">
@@ -4676,13 +4985,16 @@
         <v>237</v>
       </c>
       <c r="H106" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="I106" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J106" t="n">
         <v>96</v>
       </c>
-      <c r="J106" t="n">
-        <v>5</v>
+      <c r="K106" t="n">
+        <v>4.37</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5028,16 @@
         <v>298</v>
       </c>
       <c r="H107" t="n">
-        <v>6.4</v>
+        <v>3.39</v>
       </c>
       <c r="I107" t="n">
+        <v>2591</v>
+      </c>
+      <c r="J107" t="n">
         <v>132</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.7</v>
+      <c r="K107" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +5071,16 @@
         <v>359</v>
       </c>
       <c r="H108" t="n">
-        <v>8.699999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="I108" t="n">
+        <v>1752</v>
+      </c>
+      <c r="J108" t="n">
         <v>184</v>
       </c>
-      <c r="J108" t="n">
-        <v>11.1</v>
+      <c r="K108" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="109">
@@ -4796,13 +5114,16 @@
         <v>397</v>
       </c>
       <c r="H109" t="n">
-        <v>5.9</v>
+        <v>3.58</v>
       </c>
       <c r="I109" t="n">
+        <v>3246</v>
+      </c>
+      <c r="J109" t="n">
         <v>157</v>
       </c>
-      <c r="J109" t="n">
-        <v>6.1</v>
+      <c r="K109" t="n">
+        <v>4.84</v>
       </c>
     </row>
     <row r="110">
@@ -4836,13 +5157,16 @@
         <v>252</v>
       </c>
       <c r="H110" t="n">
-        <v>10.4</v>
+        <v>3.86</v>
       </c>
       <c r="I110" t="n">
+        <v>1630</v>
+      </c>
+      <c r="J110" t="n">
         <v>97</v>
       </c>
-      <c r="J110" t="n">
-        <v>7.5</v>
+      <c r="K110" t="n">
+        <v>5.95</v>
       </c>
     </row>
     <row r="111">
@@ -4876,13 +5200,16 @@
         <v>85</v>
       </c>
       <c r="H111" t="n">
-        <v>9.699999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="I111" t="n">
+        <v>1531</v>
+      </c>
+      <c r="J111" t="n">
         <v>56</v>
       </c>
-      <c r="J111" t="n">
-        <v>11.2</v>
+      <c r="K111" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="112">
@@ -4916,13 +5243,16 @@
         <v>110</v>
       </c>
       <c r="H112" t="n">
-        <v>16.3</v>
+        <v>6.52</v>
       </c>
       <c r="I112" t="n">
+        <v>595</v>
+      </c>
+      <c r="J112" t="n">
         <v>56</v>
       </c>
-      <c r="J112" t="n">
-        <v>16.6</v>
+      <c r="K112" t="n">
+        <v>9.41</v>
       </c>
     </row>
     <row r="113">
@@ -4956,13 +5286,16 @@
         <v>33</v>
       </c>
       <c r="H113" t="n">
-        <v>5.8</v>
+        <v>1.77</v>
       </c>
       <c r="I113" t="n">
+        <v>730</v>
+      </c>
+      <c r="J113" t="n">
         <v>20</v>
       </c>
-      <c r="J113" t="n">
-        <v>7.5</v>
+      <c r="K113" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="114">
@@ -4996,13 +5329,16 @@
         <v>142</v>
       </c>
       <c r="H114" t="n">
-        <v>12.3</v>
+        <v>7.47</v>
       </c>
       <c r="I114" t="n">
+        <v>687</v>
+      </c>
+      <c r="J114" t="n">
         <v>77</v>
       </c>
-      <c r="J114" t="n">
-        <v>14</v>
+      <c r="K114" t="n">
+        <v>11.21</v>
       </c>
     </row>
     <row r="115">
@@ -5036,13 +5372,16 @@
         <v>199</v>
       </c>
       <c r="H115" t="n">
-        <v>6.6</v>
+        <v>3.94</v>
       </c>
       <c r="I115" t="n">
+        <v>1534</v>
+      </c>
+      <c r="J115" t="n">
         <v>73</v>
       </c>
-      <c r="J115" t="n">
-        <v>5.4</v>
+      <c r="K115" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="116">
@@ -5076,13 +5415,16 @@
         <v>100</v>
       </c>
       <c r="H116" t="n">
-        <v>15.4</v>
+        <v>3.65</v>
       </c>
       <c r="I116" t="n">
+        <v>756</v>
+      </c>
+      <c r="J116" t="n">
         <v>29</v>
       </c>
-      <c r="J116" t="n">
-        <v>18.4</v>
+      <c r="K116" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="117">
@@ -5116,13 +5458,16 @@
         <v>327</v>
       </c>
       <c r="H117" t="n">
-        <v>5.9</v>
+        <v>3.39</v>
       </c>
       <c r="I117" t="n">
+        <v>1811</v>
+      </c>
+      <c r="J117" t="n">
         <v>85</v>
       </c>
-      <c r="J117" t="n">
-        <v>9.199999999999999</v>
+      <c r="K117" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="118">
@@ -5156,13 +5501,16 @@
         <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="I118" t="n">
+        <v>193</v>
+      </c>
+      <c r="J118" t="n">
         <v>4</v>
       </c>
-      <c r="J118" t="n">
-        <v>2.1</v>
+      <c r="K118" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="119">
@@ -5196,13 +5544,16 @@
         <v>233</v>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>4.16</v>
       </c>
       <c r="I119" t="n">
+        <v>1507</v>
+      </c>
+      <c r="J119" t="n">
         <v>88</v>
       </c>
-      <c r="J119" t="n">
-        <v>8.1</v>
+      <c r="K119" t="n">
+        <v>5.84</v>
       </c>
     </row>
     <row r="120">
@@ -5236,13 +5587,16 @@
         <v>49</v>
       </c>
       <c r="H120" t="n">
-        <v>4.1</v>
+        <v>1.58</v>
       </c>
       <c r="I120" t="n">
+        <v>843</v>
+      </c>
+      <c r="J120" t="n">
         <v>24</v>
       </c>
-      <c r="J120" t="n">
-        <v>4.6</v>
+      <c r="K120" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="121">
@@ -5276,13 +5630,16 @@
         <v>178</v>
       </c>
       <c r="H121" t="n">
-        <v>5.6</v>
+        <v>4.79</v>
       </c>
       <c r="I121" t="n">
+        <v>736</v>
+      </c>
+      <c r="J121" t="n">
         <v>32</v>
       </c>
-      <c r="J121" t="n">
-        <v>5.7</v>
+      <c r="K121" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="122">
@@ -5316,13 +5673,16 @@
         <v>100</v>
       </c>
       <c r="H122" t="n">
-        <v>3.7</v>
+        <v>1.99</v>
       </c>
       <c r="I122" t="n">
+        <v>1423</v>
+      </c>
+      <c r="J122" t="n">
         <v>25</v>
       </c>
-      <c r="J122" t="n">
-        <v>2</v>
+      <c r="K122" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="123">
@@ -5356,13 +5716,16 @@
         <v>99</v>
       </c>
       <c r="H123" t="n">
-        <v>6.1</v>
+        <v>3.04</v>
       </c>
       <c r="I123" t="n">
+        <v>908</v>
+      </c>
+      <c r="J123" t="n">
         <v>40</v>
       </c>
-      <c r="J123" t="n">
-        <v>12.2</v>
+      <c r="K123" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="124">
@@ -5396,13 +5759,16 @@
         <v>79</v>
       </c>
       <c r="H124" t="n">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="I124" t="n">
+        <v>893</v>
+      </c>
+      <c r="J124" t="n">
         <v>41</v>
       </c>
-      <c r="J124" t="n">
-        <v>5.3</v>
+      <c r="K124" t="n">
+        <v>4.59</v>
       </c>
     </row>
     <row r="125">
@@ -5436,13 +5802,16 @@
         <v>58</v>
       </c>
       <c r="H125" t="n">
-        <v>6.5</v>
+        <v>3.85</v>
       </c>
       <c r="I125" t="n">
+        <v>477</v>
+      </c>
+      <c r="J125" t="n">
         <v>28</v>
       </c>
-      <c r="J125" t="n">
-        <v>8</v>
+      <c r="K125" t="n">
+        <v>5.87</v>
       </c>
     </row>
     <row r="126">
@@ -5476,13 +5845,16 @@
         <v>68</v>
       </c>
       <c r="H126" t="n">
-        <v>8.699999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="I126" t="n">
+        <v>395</v>
+      </c>
+      <c r="J126" t="n">
         <v>33</v>
       </c>
-      <c r="J126" t="n">
-        <v>9.9</v>
+      <c r="K126" t="n">
+        <v>8.35</v>
       </c>
     </row>
     <row r="127">
@@ -5516,13 +5888,16 @@
         <v>169</v>
       </c>
       <c r="H127" t="n">
-        <v>8</v>
+        <v>4.64</v>
       </c>
       <c r="I127" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J127" t="n">
         <v>54</v>
       </c>
-      <c r="J127" t="n">
-        <v>7.1</v>
+      <c r="K127" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="128">
@@ -5556,13 +5931,16 @@
         <v>197</v>
       </c>
       <c r="H128" t="n">
-        <v>8.1</v>
+        <v>3.81</v>
       </c>
       <c r="I128" t="n">
+        <v>1388</v>
+      </c>
+      <c r="J128" t="n">
         <v>71</v>
       </c>
-      <c r="J128" t="n">
-        <v>7.4</v>
+      <c r="K128" t="n">
+        <v>5.12</v>
       </c>
     </row>
     <row r="129">
@@ -5596,13 +5974,16 @@
         <v>101</v>
       </c>
       <c r="H129" t="n">
-        <v>9.4</v>
+        <v>4.66</v>
       </c>
       <c r="I129" t="n">
+        <v>633</v>
+      </c>
+      <c r="J129" t="n">
         <v>36</v>
       </c>
-      <c r="J129" t="n">
-        <v>8.5</v>
+      <c r="K129" t="n">
+        <v>5.69</v>
       </c>
     </row>
     <row r="130">
@@ -5636,13 +6017,16 @@
         <v>24</v>
       </c>
       <c r="H130" t="n">
-        <v>17.2</v>
+        <v>3.09</v>
       </c>
       <c r="I130" t="n">
+        <v>187</v>
+      </c>
+      <c r="J130" t="n">
         <v>17</v>
       </c>
-      <c r="J130" t="n">
-        <v>11.8</v>
+      <c r="K130" t="n">
+        <v>9.09</v>
       </c>
     </row>
     <row r="131">
@@ -5676,13 +6060,16 @@
         <v>88</v>
       </c>
       <c r="H131" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="I131" t="n">
+        <v>845</v>
+      </c>
+      <c r="J131" t="n">
         <v>39</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.7</v>
+      <c r="K131" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="132">
@@ -5716,13 +6103,16 @@
         <v>50</v>
       </c>
       <c r="H132" t="n">
-        <v>3.1</v>
+        <v>2.59</v>
       </c>
       <c r="I132" t="n">
+        <v>684</v>
+      </c>
+      <c r="J132" t="n">
         <v>20</v>
       </c>
-      <c r="J132" t="n">
-        <v>3.7</v>
+      <c r="K132" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row r="133">
@@ -5756,13 +6146,16 @@
         <v>37</v>
       </c>
       <c r="H133" t="n">
-        <v>8.300000000000001</v>
+        <v>4.26</v>
       </c>
       <c r="I133" t="n">
+        <v>318</v>
+      </c>
+      <c r="J133" t="n">
         <v>18</v>
       </c>
-      <c r="J133" t="n">
-        <v>6</v>
+      <c r="K133" t="n">
+        <v>5.66</v>
       </c>
     </row>
     <row r="134">
@@ -5796,13 +6189,16 @@
         <v>72</v>
       </c>
       <c r="H134" t="n">
-        <v>14.4</v>
+        <v>2.6</v>
       </c>
       <c r="I134" t="n">
+        <v>1313</v>
+      </c>
+      <c r="J134" t="n">
         <v>54</v>
       </c>
-      <c r="J134" t="n">
-        <v>11.3</v>
+      <c r="K134" t="n">
+        <v>4.11</v>
       </c>
     </row>
     <row r="135">
@@ -5836,13 +6232,16 @@
         <v>63</v>
       </c>
       <c r="H135" t="n">
-        <v>7.3</v>
+        <v>4.71</v>
       </c>
       <c r="I135" t="n">
+        <v>278</v>
+      </c>
+      <c r="J135" t="n">
         <v>7</v>
       </c>
-      <c r="J135" t="n">
-        <v>2.9</v>
+      <c r="K135" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="136">
@@ -5876,13 +6275,16 @@
         <v>169</v>
       </c>
       <c r="H136" t="n">
-        <v>6.7</v>
+        <v>3.96</v>
       </c>
       <c r="I136" t="n">
+        <v>1209</v>
+      </c>
+      <c r="J136" t="n">
         <v>65</v>
       </c>
-      <c r="J136" t="n">
-        <v>5.9</v>
+      <c r="K136" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="137">
@@ -5916,13 +6318,16 @@
         <v>33</v>
       </c>
       <c r="H137" t="n">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="I137" t="n">
+        <v>257</v>
+      </c>
+      <c r="J137" t="n">
         <v>16</v>
       </c>
-      <c r="J137" t="n">
-        <v>7.8</v>
+      <c r="K137" t="n">
+        <v>6.23</v>
       </c>
     </row>
     <row r="138">
@@ -5956,13 +6361,16 @@
         <v>128</v>
       </c>
       <c r="H138" t="n">
-        <v>9.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="I138" t="n">
+        <v>721</v>
+      </c>
+      <c r="J138" t="n">
         <v>72</v>
       </c>
-      <c r="J138" t="n">
-        <v>12.3</v>
+      <c r="K138" t="n">
+        <v>9.99</v>
       </c>
     </row>
     <row r="139">
@@ -5996,13 +6404,16 @@
         <v>68</v>
       </c>
       <c r="H139" t="n">
-        <v>8.800000000000001</v>
+        <v>5.18</v>
       </c>
       <c r="I139" t="n">
+        <v>319</v>
+      </c>
+      <c r="J139" t="n">
         <v>37</v>
       </c>
-      <c r="J139" t="n">
-        <v>12.9</v>
+      <c r="K139" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="140">
@@ -6036,13 +6447,16 @@
         <v>10</v>
       </c>
       <c r="H140" t="n">
-        <v>31.1</v>
+        <v>16.39</v>
       </c>
       <c r="I140" t="n">
+        <v>30</v>
+      </c>
+      <c r="J140" t="n">
         <v>4</v>
       </c>
-      <c r="J140" t="n">
-        <v>16.7</v>
+      <c r="K140" t="n">
+        <v>13.33</v>
       </c>
     </row>
     <row r="141">
@@ -6076,13 +6490,16 @@
         <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="I141" t="n">
+        <v>30</v>
+      </c>
+      <c r="J141" t="n">
         <v>1</v>
       </c>
-      <c r="J141" t="n">
-        <v>3.3</v>
+      <c r="K141" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row r="142">
@@ -6116,13 +6533,16 @@
         <v>192</v>
       </c>
       <c r="H142" t="n">
-        <v>10.1</v>
+        <v>6.34</v>
       </c>
       <c r="I142" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J142" t="n">
         <v>80</v>
       </c>
-      <c r="J142" t="n">
-        <v>11.7</v>
+      <c r="K142" t="n">
+        <v>7.97</v>
       </c>
     </row>
     <row r="143">
@@ -6156,13 +6576,16 @@
         <v>4</v>
       </c>
       <c r="H143" t="n">
-        <v>44.4</v>
+        <v>44.44</v>
       </c>
       <c r="I143" t="n">
+        <v>9</v>
+      </c>
+      <c r="J143" t="n">
         <v>4</v>
       </c>
-      <c r="J143" t="n">
-        <v>44.4</v>
+      <c r="K143" t="n">
+        <v>44.44</v>
       </c>
     </row>
     <row r="144">
@@ -6196,13 +6619,16 @@
         <v>12</v>
       </c>
       <c r="H144" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="I144" t="n">
+        <v>70</v>
+      </c>
+      <c r="J144" t="n">
         <v>4</v>
       </c>
-      <c r="J144" t="n">
-        <v>5.7</v>
+      <c r="K144" t="n">
+        <v>5.71</v>
       </c>
     </row>
     <row r="145">
@@ -6236,13 +6662,16 @@
         <v>7</v>
       </c>
       <c r="H145" t="n">
-        <v>8.1</v>
+        <v>5.65</v>
       </c>
       <c r="I145" t="n">
+        <v>55</v>
+      </c>
+      <c r="J145" t="n">
         <v>5</v>
       </c>
-      <c r="J145" t="n">
-        <v>10.9</v>
+      <c r="K145" t="n">
+        <v>9.09</v>
       </c>
     </row>
     <row r="146">
@@ -6276,13 +6705,16 @@
         <v>21</v>
       </c>
       <c r="H146" t="n">
-        <v>7.8</v>
+        <v>5.15</v>
       </c>
       <c r="I146" t="n">
+        <v>135</v>
+      </c>
+      <c r="J146" t="n">
         <v>9</v>
       </c>
-      <c r="J146" t="n">
-        <v>7.4</v>
+      <c r="K146" t="n">
+        <v>6.67</v>
       </c>
     </row>
     <row r="147">
@@ -6316,13 +6748,16 @@
         <v>66</v>
       </c>
       <c r="H147" t="n">
-        <v>9.800000000000001</v>
+        <v>5.16</v>
       </c>
       <c r="I147" t="n">
+        <v>372</v>
+      </c>
+      <c r="J147" t="n">
         <v>28</v>
       </c>
-      <c r="J147" t="n">
-        <v>11.6</v>
+      <c r="K147" t="n">
+        <v>7.53</v>
       </c>
     </row>
     <row r="148">
@@ -6356,13 +6791,16 @@
         <v>39</v>
       </c>
       <c r="H148" t="n">
-        <v>8.9</v>
+        <v>4.87</v>
       </c>
       <c r="I148" t="n">
+        <v>247</v>
+      </c>
+      <c r="J148" t="n">
         <v>16</v>
       </c>
-      <c r="J148" t="n">
-        <v>10.9</v>
+      <c r="K148" t="n">
+        <v>6.48</v>
       </c>
     </row>
     <row r="149">
@@ -6396,13 +6834,16 @@
         <v>58</v>
       </c>
       <c r="H149" t="n">
-        <v>7.7</v>
+        <v>4.93</v>
       </c>
       <c r="I149" t="n">
+        <v>383</v>
+      </c>
+      <c r="J149" t="n">
         <v>27</v>
       </c>
-      <c r="J149" t="n">
-        <v>10.2</v>
+      <c r="K149" t="n">
+        <v>7.05</v>
       </c>
     </row>
     <row r="150">
@@ -6436,13 +6877,16 @@
         <v>11</v>
       </c>
       <c r="H150" t="n">
-        <v>4.8</v>
+        <v>3.33</v>
       </c>
       <c r="I150" t="n">
+        <v>66</v>
+      </c>
+      <c r="J150" t="n">
         <v>4</v>
       </c>
-      <c r="J150" t="n">
-        <v>7.6</v>
+      <c r="K150" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="151">
@@ -6476,13 +6920,16 @@
         <v>66</v>
       </c>
       <c r="H151" t="n">
-        <v>6.3</v>
+        <v>4.98</v>
       </c>
       <c r="I151" t="n">
+        <v>398</v>
+      </c>
+      <c r="J151" t="n">
         <v>28</v>
       </c>
-      <c r="J151" t="n">
-        <v>9.300000000000001</v>
+      <c r="K151" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="152">
@@ -6516,13 +6963,16 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
+        <v>14</v>
+      </c>
+      <c r="J152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>14.3</v>
+      <c r="K152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6556,13 +7006,16 @@
         <v>11</v>
       </c>
       <c r="H153" t="n">
-        <v>10.9</v>
+        <v>6.29</v>
       </c>
       <c r="I153" t="n">
+        <v>67</v>
+      </c>
+      <c r="J153" t="n">
         <v>4</v>
       </c>
-      <c r="J153" t="n">
-        <v>11.9</v>
+      <c r="K153" t="n">
+        <v>5.97</v>
       </c>
     </row>
     <row r="154">
@@ -6596,13 +7049,16 @@
         <v>35</v>
       </c>
       <c r="H154" t="n">
-        <v>15.6</v>
+        <v>9.59</v>
       </c>
       <c r="I154" t="n">
+        <v>104</v>
+      </c>
+      <c r="J154" t="n">
         <v>15</v>
       </c>
-      <c r="J154" t="n">
-        <v>15.4</v>
+      <c r="K154" t="n">
+        <v>14.42</v>
       </c>
     </row>
     <row r="155">
@@ -6636,13 +7092,16 @@
         <v>35</v>
       </c>
       <c r="H155" t="n">
-        <v>11.4</v>
+        <v>5.05</v>
       </c>
       <c r="I155" t="n">
+        <v>208</v>
+      </c>
+      <c r="J155" t="n">
         <v>17</v>
       </c>
-      <c r="J155" t="n">
-        <v>12</v>
+      <c r="K155" t="n">
+        <v>8.17</v>
       </c>
     </row>
     <row r="156">
@@ -6676,13 +7135,16 @@
         <v>44</v>
       </c>
       <c r="H156" t="n">
-        <v>14.9</v>
+        <v>5.53</v>
       </c>
       <c r="I156" t="n">
+        <v>257</v>
+      </c>
+      <c r="J156" t="n">
         <v>22</v>
       </c>
-      <c r="J156" t="n">
-        <v>10.9</v>
+      <c r="K156" t="n">
+        <v>8.56</v>
       </c>
     </row>
     <row r="157">
@@ -6716,13 +7178,16 @@
         <v>61</v>
       </c>
       <c r="H157" t="n">
-        <v>12.5</v>
+        <v>7.18</v>
       </c>
       <c r="I157" t="n">
+        <v>244</v>
+      </c>
+      <c r="J157" t="n">
         <v>26</v>
       </c>
-      <c r="J157" t="n">
-        <v>11.9</v>
+      <c r="K157" t="n">
+        <v>10.66</v>
       </c>
     </row>
     <row r="158">
@@ -6756,13 +7221,16 @@
         <v>31</v>
       </c>
       <c r="H158" t="n">
-        <v>22.4</v>
+        <v>14.49</v>
       </c>
       <c r="I158" t="n">
+        <v>116</v>
+      </c>
+      <c r="J158" t="n">
         <v>26</v>
       </c>
-      <c r="J158" t="n">
-        <v>27.6</v>
+      <c r="K158" t="n">
+        <v>22.41</v>
       </c>
     </row>
     <row r="159">
@@ -6796,13 +7264,16 @@
         <v>4</v>
       </c>
       <c r="H159" t="n">
-        <v>8.6</v>
+        <v>5.71</v>
       </c>
       <c r="I159" t="n">
+        <v>21</v>
+      </c>
+      <c r="J159" t="n">
         <v>3</v>
       </c>
-      <c r="J159" t="n">
-        <v>14.3</v>
+      <c r="K159" t="n">
+        <v>14.29</v>
       </c>
     </row>
     <row r="160">
@@ -6836,13 +7307,16 @@
         <v>99</v>
       </c>
       <c r="H160" t="n">
-        <v>10.3</v>
+        <v>7.11</v>
       </c>
       <c r="I160" t="n">
+        <v>410</v>
+      </c>
+      <c r="J160" t="n">
         <v>47</v>
       </c>
-      <c r="J160" t="n">
-        <v>13.4</v>
+      <c r="K160" t="n">
+        <v>11.46</v>
       </c>
     </row>
     <row r="161">
@@ -6876,13 +7350,16 @@
         <v>89</v>
       </c>
       <c r="H161" t="n">
-        <v>12.6</v>
+        <v>8.44</v>
       </c>
       <c r="I161" t="n">
+        <v>346</v>
+      </c>
+      <c r="J161" t="n">
         <v>45</v>
       </c>
-      <c r="J161" t="n">
-        <v>17.6</v>
+      <c r="K161" t="n">
+        <v>13.01</v>
       </c>
     </row>
     <row r="162">
@@ -6916,13 +7393,16 @@
         <v>107</v>
       </c>
       <c r="H162" t="n">
-        <v>6.9</v>
+        <v>4.72</v>
       </c>
       <c r="I162" t="n">
+        <v>734</v>
+      </c>
+      <c r="J162" t="n">
         <v>48</v>
       </c>
-      <c r="J162" t="n">
-        <v>7.2</v>
+      <c r="K162" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="163">
@@ -6956,13 +7436,16 @@
         <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>11.1</v>
+        <v>9.09</v>
       </c>
       <c r="I163" t="n">
+        <v>103</v>
+      </c>
+      <c r="J163" t="n">
         <v>9</v>
       </c>
-      <c r="J163" t="n">
-        <v>10.7</v>
+      <c r="K163" t="n">
+        <v>8.74</v>
       </c>
     </row>
     <row r="164">
@@ -6996,13 +7479,16 @@
         <v>36</v>
       </c>
       <c r="H164" t="n">
-        <v>6.7</v>
+        <v>6.16</v>
       </c>
       <c r="I164" t="n">
+        <v>211</v>
+      </c>
+      <c r="J164" t="n">
         <v>21</v>
       </c>
-      <c r="J164" t="n">
-        <v>10</v>
+      <c r="K164" t="n">
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -7036,13 +7522,16 @@
         <v>66</v>
       </c>
       <c r="H165" t="n">
-        <v>10.6</v>
+        <v>6.67</v>
       </c>
       <c r="I165" t="n">
+        <v>306</v>
+      </c>
+      <c r="J165" t="n">
         <v>26</v>
       </c>
-      <c r="J165" t="n">
-        <v>11.8</v>
+      <c r="K165" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="166">
@@ -7076,13 +7565,16 @@
         <v>57</v>
       </c>
       <c r="H166" t="n">
-        <v>7</v>
+        <v>6.18</v>
       </c>
       <c r="I166" t="n">
+        <v>194</v>
+      </c>
+      <c r="J166" t="n">
         <v>19</v>
       </c>
-      <c r="J166" t="n">
-        <v>9.800000000000001</v>
+      <c r="K166" t="n">
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="167">
@@ -7116,13 +7608,16 @@
         <v>162</v>
       </c>
       <c r="H167" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I167" t="n">
+        <v>1139</v>
+      </c>
+      <c r="J167" t="n">
         <v>64</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.6</v>
+      <c r="K167" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="168">
@@ -7156,13 +7651,16 @@
         <v>382</v>
       </c>
       <c r="H168" t="n">
-        <v>6</v>
+        <v>4.99</v>
       </c>
       <c r="I168" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J168" t="n">
         <v>244</v>
       </c>
-      <c r="J168" t="n">
-        <v>8.4</v>
+      <c r="K168" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="169">
@@ -7196,13 +7694,16 @@
         <v>68</v>
       </c>
       <c r="H169" t="n">
-        <v>6.5</v>
+        <v>3.79</v>
       </c>
       <c r="I169" t="n">
+        <v>667</v>
+      </c>
+      <c r="J169" t="n">
         <v>42</v>
       </c>
-      <c r="J169" t="n">
-        <v>7.8</v>
+      <c r="K169" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="170">
@@ -7236,13 +7737,16 @@
         <v>91</v>
       </c>
       <c r="H170" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="I170" t="n">
+        <v>951</v>
+      </c>
+      <c r="J170" t="n">
         <v>53</v>
       </c>
-      <c r="J170" t="n">
-        <v>6.5</v>
+      <c r="K170" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row r="171">
@@ -7276,13 +7780,16 @@
         <v>85</v>
       </c>
       <c r="H171" t="n">
-        <v>8.5</v>
+        <v>3.92</v>
       </c>
       <c r="I171" t="n">
+        <v>781</v>
+      </c>
+      <c r="J171" t="n">
         <v>51</v>
       </c>
-      <c r="J171" t="n">
-        <v>11.8</v>
+      <c r="K171" t="n">
+        <v>6.53</v>
       </c>
     </row>
   </sheetData>
